--- a/data/2023-07-06_bioassay_3.xlsx
+++ b/data/2023-07-06_bioassay_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831F49B4-AFE2-4739-BC9E-30D05B01FE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B732C0FE-DE3D-484B-B582-24DDCB2650A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="0" yWindow="336" windowWidth="11496" windowHeight="12024" firstSheet="4" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="NO2" sheetId="4" r:id="rId4"/>
     <sheet name="All Nutrients" sheetId="5" r:id="rId5"/>
     <sheet name="All Nutrients zeroes" sheetId="6" r:id="rId6"/>
+    <sheet name="PAM" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -714,8 +715,30 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{24B88259-7E17-423E-B827-764EAA9C0848}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Total Chl a + Chl a isomers</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="74">
   <si>
     <t>Number</t>
   </si>
@@ -935,6 +958,9 @@
   <si>
     <t>NO3_5</t>
   </si>
+  <si>
+    <t>FvFm</t>
+  </si>
 </sst>
 </file>
 
@@ -1035,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1058,7 +1084,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,7 +1401,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6490,7 +6515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
@@ -6739,11 +6764,11 @@
       <c r="B6" s="12">
         <v>45113</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="7"/>
@@ -6787,11 +6812,11 @@
       <c r="B7" s="12">
         <v>45113</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="F7" s="14">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="7"/>
@@ -6835,7 +6860,7 @@
       <c r="B8" s="12">
         <v>45113</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="7"/>
@@ -6883,7 +6908,7 @@
       <c r="B9" s="12">
         <v>45113</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="7">
         <v>0</v>
       </c>
       <c r="D9" s="7"/>
@@ -7964,6 +7989,660 @@
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81674220-8498-41C1-B8D9-7D721B9C6F39}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45111</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45111</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45111</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>45113</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36">
+        <v>0.33600000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2023-07-06_bioassay_3.xlsx
+++ b/data/2023-07-06_bioassay_3.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B732C0FE-DE3D-484B-B582-24DDCB2650A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F661A94-3608-46C2-A0EF-44D8F761A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="336" windowWidth="11496" windowHeight="12024" firstSheet="4" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
     <sheet name="PO4" sheetId="2" r:id="rId2"/>
     <sheet name="NO3" sheetId="3" r:id="rId3"/>
     <sheet name="NO2" sheetId="4" r:id="rId4"/>
-    <sheet name="All Nutrients" sheetId="5" r:id="rId5"/>
-    <sheet name="All Nutrients zeroes" sheetId="6" r:id="rId6"/>
-    <sheet name="PAM" sheetId="7" r:id="rId7"/>
+    <sheet name="NH4" sheetId="8" r:id="rId5"/>
+    <sheet name="All Nutrients" sheetId="5" r:id="rId6"/>
+    <sheet name="All Nutrients zeroes" sheetId="6" r:id="rId7"/>
+    <sheet name="PAM" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,6 +386,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{18D89D20-12C3-4A85-8932-CB79BA65E0FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+these samples were left out for 4-5 days</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -711,6 +736,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{B5E86E86-95FC-4F3A-B3CE-BA40E0080FC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Catherine Schlenker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+these samples were left out of fridge for 4-5 days</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -738,7 +787,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="80">
   <si>
     <t>Number</t>
   </si>
@@ -961,6 +1010,24 @@
   <si>
     <t>FvFm</t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Ammonia Seawater 1</t>
+  </si>
+  <si>
+    <t>Nitrite 1.5</t>
+  </si>
+  <si>
+    <t>Standard 96</t>
+  </si>
+  <si>
+    <t>These were left out for 4-5 days</t>
+  </si>
+  <si>
+    <t>DIN:DIP</t>
+  </si>
 </sst>
 </file>
 
@@ -970,7 +1037,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,8 +1075,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1113,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,6 +1184,10 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CDBA2A-F3DE-4E4B-AD2E-26C867225FF3}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1444,7 +1548,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2">
-        <v>4.3028581391308895</v>
+        <v>4.8896115217396465</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1462,7 +1566,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3">
-        <v>6.3271899504603084</v>
+        <v>4.9431171487971159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,7 +1584,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4">
-        <v>4.1325383864017002</v>
+        <v>4.6960663481837503</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1498,7 +1602,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5">
-        <v>4.4487185297295939</v>
+        <v>5.0553619656018114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1516,7 +1620,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6">
-        <v>4.1476786317221155</v>
+        <v>4.7132711724114937</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1534,7 +1638,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7">
-        <v>3.4739391680717961</v>
+        <v>3.9476581455361317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1552,7 +1656,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8">
-        <v>3.6319143274484054</v>
+        <v>4.1271753721004609</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1570,7 +1674,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9">
-        <v>3.4153694946382989</v>
+        <v>3.8811016984526123</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1588,7 +1692,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10">
-        <v>3.7247872634535151</v>
+        <v>4.2327127993789944</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1606,7 +1710,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11">
-        <v>4.0153997264526016</v>
+        <v>4.5629542346052281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1624,7 +1728,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12">
-        <v>20.802697017374584</v>
+        <v>23.639428428834751</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1642,7 +1746,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13">
-        <v>22.168916084804586</v>
+        <v>25.191950096368846</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1660,7 +1764,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14">
-        <v>22.414029619805753</v>
+        <v>25.470488204324724</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1678,7 +1782,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15">
-        <v>24.665043575649015</v>
+        <v>28.028458608692059</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1696,7 +1800,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16">
-        <v>26.749623772182144</v>
+        <v>30.397299741116068</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1714,7 +1818,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17">
-        <v>5.7412802950692958</v>
+        <v>6.5241821534878355</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1732,7 +1836,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18">
-        <v>4.5837401788785455</v>
+        <v>5.2087956578165286</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1750,7 +1854,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19">
-        <v>4.1342645491105623</v>
+        <v>4.6980278967165479</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1768,7 +1872,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20">
-        <v>3.91168698514196</v>
+        <v>4.4450988467522272</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1786,7 +1890,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21">
-        <v>4.6913094256364527</v>
+        <v>5.3310334382232423</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1804,7 +1908,7 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22">
-        <v>3.6841100185924374</v>
+        <v>4.186488657491406</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1822,7 +1926,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23">
-        <v>3.5247916963880264</v>
+        <v>4.0054451095318475</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1840,7 +1944,7 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24">
-        <v>3.7056325258521161</v>
+        <v>4.2109460521046769</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1858,7 +1962,7 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25">
-        <v>3.4802464369182244</v>
+        <v>3.9548254964979823</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1876,7 +1980,7 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26">
-        <v>3.5772596545226167</v>
+        <v>4.0650677892302456</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1894,7 +1998,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27">
-        <v>12.986562513089588</v>
+        <v>14.757457401238165</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1912,7 +2016,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28">
-        <v>20.248965533336285</v>
+        <v>23.010188106063957</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1930,7 +2034,7 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29">
-        <v>21.594890151435798</v>
+        <v>24.539647899358865</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1948,7 +2052,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30">
-        <v>23.708008533907361</v>
+        <v>26.940918788531086</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1966,7 +2070,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31">
-        <v>25.744592388922801</v>
+        <v>29.255218623775907</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1984,7 +2088,7 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32">
-        <v>25.080244428858656</v>
+        <v>28.500277760066652</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2002,7 +2106,7 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33">
-        <v>24.661209217767368</v>
+        <v>28.024101383826551</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2020,7 +2124,7 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34">
-        <v>25.489433569490497</v>
+        <v>28.965265419875561</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2038,7 +2142,7 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35">
-        <v>25.171768955032071</v>
+        <v>28.604282903445533</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2056,7 +2160,7 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36">
-        <v>20.315963866156764</v>
+        <v>23.086322575178144</v>
       </c>
     </row>
   </sheetData>
@@ -4480,545 +4584,1219 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF4E2AF-D0E5-496A-A32E-8CD4C7B10324}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
+      <c r="M1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.9550000000000001E-3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45149.599999999999</v>
+      </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45149.600694444445</v>
+      </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3.0145999999999999E-2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45149.601388888892</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.8714000000000002E-2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45149.602777777778</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.1154</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.115383</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45149.603472222225</v>
+      </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.2833</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.28332400000000002</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45149.604166666664</v>
+      </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.56286800000000003</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45149.605555555558</v>
+      </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.1737</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.173686</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45149.606249999997</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:15">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5.9040000000000004E-3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45149.606944444444</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.755E-3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45149.60833333333</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.3540000000000002E-3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45149.609027777777</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.8129999999999999E-3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45149.609722222223</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.1779999999999998E-3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45149.611111111109</v>
+      </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:15">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.7049999999999999E-3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45149.611805555556</v>
+      </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.637E-3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45149.612500000003</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2.7550000000000001E-3</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45149.613888888889</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.7910000000000001E-3</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45149.614583333336</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2.601E-3</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45149.615277777775</v>
+      </c>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.3969999999999998E-3</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45149.616666666669</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2.447E-3</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45149.617361111108</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45149.618055555555</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.441E-3</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>45149.619444444441</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7"/>
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.7899999999999999E-3</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45149.620138888888</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.952E-3</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>45149.620833333334</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.977E-3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>45149.62222222222</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.2320000000000001E-3</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>45149.622916666667</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2.9020000000000001E-3</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>45149.623611111114</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1.9469999999999999E-3</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45149.625</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1.787E-3</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7"/>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45149.625694444447</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2.7179999999999999E-3</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>45149.626388888886</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3.0109999999999998E-3</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>45149.62777777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2.728E-3</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>45149.628472222219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="7">
+        <v>2.4520000000000002E-3</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>45149.629166666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.547E-3</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>45149.630555555559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2.1740000000000002E-3</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>45149.631249999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2.8760000000000001E-3</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="7"/>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45149.631944444445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3.0530000000000002E-3</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>45149.633333333331</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5027,11 +5805,1233 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B182F73-781B-4160-B4E4-CB3EDF22DF4E}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.12796199999999999</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>45149.547222222223</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.16642699999999999</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>45149.548611111109</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.183</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.182953</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45149.55</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.20766499999999999</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>45149.551388888889</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.27632600000000002</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>45149.552777777775</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.39142100000000002</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45149.554166666669</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.50694099999999997</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>45149.555555555555</v>
+      </c>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.56733699999999998</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45149.556944444441</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.13018099999999999</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>45149.558333333334</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.12918099999999999</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>45149.55972222222</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.13153200000000001</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>45149.561111111114</v>
+      </c>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.176396</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>45149.5625</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.13497100000000001</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>45149.563888888886</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.158664</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>45149.56527777778</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.145286</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>45149.566666666666</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.126468</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>45149.568055555559</v>
+      </c>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.124474</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>45149.569444444445</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.15773799999999999</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>45149.570833333331</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.158196</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>45149.572222222225</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.13217899999999999</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45149.573611111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.152</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.22383500000000001</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>45149.574999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.126695</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>45149.576388888891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.12779299999999999</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>45149.577777777777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.12706700000000001</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>45149.57916666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="7">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.12826299999999999</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>45149.580555555556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.13564999999999999</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>45149.581944444442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.131965</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>45149.583333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.13508999999999999</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>45149.584722222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-0.03</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.144265</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>45149.586111111108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.131826</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>45149.587500000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="7">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.12851799999999999</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>45149.588888888888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.12706500000000001</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>45149.590277777781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.16043099999999999</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>45149.591666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.176814</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>45149.593055555553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.14898700000000001</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>45149.594444444447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.15066299999999999</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>45149.595833333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.14705699999999999</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>45149.597222222219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E099A6A7-683D-49D1-8BC7-73FA927702F9}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5090,18 +7090,23 @@
       <c r="C2" s="9">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>-6.5000000000000002E-2</v>
+      </c>
       <c r="F2" s="9">
         <v>-0.01</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="10">
         <f>C2+D2</f>
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.72E-2</v>
       </c>
       <c r="J2" s="10">
         <f>E2+H2</f>
-        <v>-2.1999999999999999E-2</v>
+        <v>-8.2199999999999995E-2</v>
       </c>
       <c r="L2" s="10">
         <f>(C2/62.01)*1000</f>
@@ -5109,11 +7114,11 @@
       </c>
       <c r="M2" s="10">
         <f>(D2/46.01)*1000</f>
-        <v>0</v>
+        <v>0.10432514670723754</v>
       </c>
       <c r="N2" s="10">
         <f>(E2/17.03)*1000</f>
-        <v>0</v>
+        <v>-3.8167938931297707</v>
       </c>
       <c r="O2" s="10">
         <f>(F2/94.97)*1000</f>
@@ -5121,11 +7126,11 @@
       </c>
       <c r="Q2" s="10">
         <f>(H2/62)*1000</f>
-        <v>-0.35483870967741932</v>
+        <v>-0.27741935483870966</v>
       </c>
       <c r="S2" s="10">
         <f>N2+Q2</f>
-        <v>-0.35483870967741932</v>
+        <v>-4.0942132479684803</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
@@ -5138,18 +7143,23 @@
       <c r="C3" s="9">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="14">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>-0.06</v>
+      </c>
       <c r="F3" s="9">
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H29" si="0">C3+D3</f>
-        <v>-2.1000000000000001E-2</v>
+        <v>-1.54E-2</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J29" si="1">E3+H3</f>
-        <v>-2.1000000000000001E-2</v>
+        <v>-7.5399999999999995E-2</v>
       </c>
       <c r="L3" s="10">
         <f>(C3/62.01)*1000</f>
@@ -5157,11 +7167,11 @@
       </c>
       <c r="M3" s="10">
         <f t="shared" ref="M3:M29" si="2">(D3/46.01)*1000</f>
-        <v>0</v>
+        <v>0.12171267115844382</v>
       </c>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N29" si="3">(E3/17.03)*1000</f>
-        <v>0</v>
+        <v>-3.523194362889019</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" ref="O3:O29" si="4">(F3/94.97)*1000</f>
@@ -5169,11 +7179,11 @@
       </c>
       <c r="Q3" s="10">
         <f t="shared" ref="Q3:Q29" si="5">(H3/62)*1000</f>
-        <v>-0.33870967741935487</v>
+        <v>-0.24838709677419357</v>
       </c>
       <c r="S3" s="10">
         <f t="shared" ref="S3:S29" si="6">N3+Q3</f>
-        <v>-0.33870967741935487</v>
+        <v>-3.7715814596632127</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1">
@@ -5186,18 +7196,23 @@
       <c r="C4" s="9">
         <v>-1.6E-2</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="14">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="F4" s="9">
         <v>-0.01</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="10">
         <f t="shared" si="0"/>
-        <v>-1.6E-2</v>
+        <v>-1.11E-2</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="1"/>
-        <v>-1.6E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="L4" s="10">
         <f t="shared" ref="L4:L29" si="7">(C4/62.01)*1000</f>
@@ -5205,11 +7220,11 @@
       </c>
       <c r="M4" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10649858726363834</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5249559600704634</v>
       </c>
       <c r="O4" s="10">
         <f t="shared" si="4"/>
@@ -5217,11 +7232,11 @@
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="5"/>
-        <v>-0.25806451612903225</v>
+        <v>-0.17903225806451614</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="6"/>
-        <v>-0.25806451612903225</v>
+        <v>2.3459237020059471</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1">
@@ -5234,18 +7249,23 @@
       <c r="C5" s="9">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="14">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>-5.1999999999999998E-2</v>
+      </c>
       <c r="F5" s="9">
         <v>-1E-3</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.7000000000000001E-3</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000001E-3</v>
+        <v>-5.3699999999999998E-2</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="7"/>
@@ -5253,11 +7273,11 @@
       </c>
       <c r="M5" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11519234948924148</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.0534351145038165</v>
       </c>
       <c r="O5" s="10">
         <f t="shared" si="4"/>
@@ -5265,11 +7285,11 @@
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="5"/>
-        <v>-0.11290322580645162</v>
+        <v>-2.7419354838709682E-2</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="6"/>
-        <v>-0.11290322580645162</v>
+        <v>-3.0808544693425262</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5282,18 +7302,23 @@
       <c r="C6" s="7">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="14">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="F6" s="7">
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>-6.0000000000000001E-3</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
@@ -5301,11 +7326,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10215170615083678</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17615971814445094</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
@@ -5313,11 +7338,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>-9.6774193548387094E-2</v>
+        <v>-2.0967741935483869E-2</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>-9.6774193548387094E-2</v>
+        <v>0.15519197620896708</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5330,18 +7355,23 @@
       <c r="C7" s="7">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="14">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>-2.8000000000000001E-2</v>
+      </c>
       <c r="F7" s="7">
         <v>-0.01</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>-1.0999999999999999E-2</v>
+        <v>-6.3999999999999994E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>-1.0999999999999999E-2</v>
+        <v>-3.44E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
@@ -5349,11 +7379,11 @@
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9978265594435997E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.644157369348209</v>
       </c>
       <c r="O7">
         <f t="shared" si="4"/>
@@ -5361,11 +7391,11 @@
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>-0.17741935483870966</v>
+        <v>-0.10322580645161289</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>-0.17741935483870966</v>
+        <v>-1.7473831757998219</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5378,18 +7408,23 @@
       <c r="C8" s="7">
         <v>-1.4E-2</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="14">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>-7.0999999999999994E-2</v>
+      </c>
       <c r="F8" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>-1.4E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>-1.4E-2</v>
+        <v>-7.8899999999999998E-2</v>
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
@@ -5397,11 +7432,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13257987394044776</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.1691133294186722</v>
       </c>
       <c r="O8">
         <f t="shared" si="4"/>
@@ -5409,11 +7444,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>-0.22580645161290325</v>
+        <v>-0.1274193548387097</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>-0.22580645161290325</v>
+        <v>-4.2965326842573823</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5426,18 +7461,23 @@
       <c r="C9" s="7">
         <v>-0.02</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>-7.5999999999999998E-2</v>
+      </c>
       <c r="F9" s="7">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
+        <v>-1.5200000000000002E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>-0.02</v>
+        <v>-9.1200000000000003E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
@@ -5445,11 +7485,11 @@
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10432514670723754</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.4627128596594243</v>
       </c>
       <c r="O9">
         <f t="shared" si="4"/>
@@ -5457,11 +7497,11 @@
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
-        <v>-0.32258064516129031</v>
+        <v>-0.24516129032258069</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>-0.32258064516129031</v>
+        <v>-4.7078741499820049</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1">
@@ -5474,18 +7514,23 @@
       <c r="C10" s="9">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="14">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
       <c r="F10" s="9">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>4.3999999999999997E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="7"/>
@@ -5493,7 +7538,7 @@
       </c>
       <c r="M10" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12823299282764616</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="3"/>
@@ -5505,11 +7550,11 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="5"/>
-        <v>0.70967741935483863</v>
+        <v>0.80483870967741933</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="6"/>
-        <v>0.70967741935483863</v>
+        <v>0.80483870967741933</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1">
@@ -5522,18 +7567,23 @@
       <c r="C11" s="9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="14">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1E-3</v>
+      </c>
       <c r="F11" s="9">
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="7"/>
@@ -5541,11 +7591,11 @@
       </c>
       <c r="M11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12171267115844382</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.8719906048150326E-2</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="4"/>
@@ -5553,11 +7603,11 @@
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="5"/>
-        <v>0.67741935483870974</v>
+        <v>0.76774193548387093</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="6"/>
-        <v>0.67741935483870974</v>
+        <v>0.82646184153202129</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="10" customFormat="1">
@@ -5570,18 +7620,23 @@
       <c r="C12" s="9">
         <v>3.1E-2</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="14">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-5.8000000000000003E-2</v>
+      </c>
       <c r="F12" s="9">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>3.1E-2</v>
+        <v>3.6699999999999997E-2</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>3.1E-2</v>
+        <v>-2.1300000000000006E-2</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="7"/>
@@ -5589,11 +7644,11 @@
       </c>
       <c r="M12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12388611171484459</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.4057545507927185</v>
       </c>
       <c r="O12" s="10">
         <f t="shared" si="4"/>
@@ -5601,11 +7656,11 @@
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.59193548387096773</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>-2.8138190669217509</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="10" customFormat="1">
@@ -5618,18 +7673,23 @@
       <c r="C13" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="14">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.152</v>
+      </c>
       <c r="F13" s="9">
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>2.7E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>2.7E-2</v>
+        <v>0.18440000000000001</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="7"/>
@@ -5637,11 +7697,11 @@
       </c>
       <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11736579004564227</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.9254257193188486</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="4"/>
@@ -5649,11 +7709,11 @@
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="5"/>
-        <v>0.43548387096774194</v>
+        <v>0.52258064516129032</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="6"/>
-        <v>0.43548387096774194</v>
+        <v>9.4480063644801398</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5666,18 +7726,23 @@
       <c r="C14" s="7">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-7.0999999999999994E-2</v>
+      </c>
       <c r="F14" s="7">
         <v>0.126</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.0599999999999998E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>-1.4999999999999999E-2</v>
+        <v>-8.1599999999999992E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
@@ -5685,11 +7750,11 @@
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.563138448163444E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.1691133294186722</v>
       </c>
       <c r="O14">
         <f t="shared" si="4"/>
@@ -5697,11 +7762,11 @@
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>-0.24193548387096775</v>
+        <v>-0.17096774193548384</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>-0.24193548387096775</v>
+        <v>-4.340081071354156</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5714,18 +7779,23 @@
       <c r="C15" s="7">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E15" s="15">
+        <v>-6.8000000000000005E-2</v>
+      </c>
       <c r="F15" s="7">
         <v>0.128</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>-8.0000000000000002E-3</v>
+        <v>-3.2000000000000006E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>-8.0000000000000002E-3</v>
+        <v>-7.1199999999999999E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
@@ -5733,11 +7803,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10432514670723754</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9929536112742219</v>
       </c>
       <c r="O15">
         <f t="shared" si="4"/>
@@ -5745,11 +7815,11 @@
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>-0.12903225806451613</v>
+        <v>-5.1612903225806459E-2</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>-0.12903225806451613</v>
+        <v>-4.044566514500028</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5762,18 +7832,23 @@
       <c r="C16" s="7">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
       <c r="F16" s="7">
         <v>0.125</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.6999999999999998E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>-2.1999999999999999E-2</v>
+        <v>-8.7000000000000008E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
@@ -5781,11 +7856,11 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10867202782003912</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.1103934233705228</v>
       </c>
       <c r="O16">
         <f t="shared" si="4"/>
@@ -5793,11 +7868,11 @@
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>-0.35483870967741932</v>
+        <v>-0.27419354838709675</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>-0.35483870967741932</v>
+        <v>-4.3845869717576198</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -5810,18 +7885,23 @@
       <c r="C17" s="7">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="14">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>-6.7000000000000004E-2</v>
+      </c>
       <c r="F17" s="7">
         <v>0.122</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>-2.1000000000000001E-2</v>
+        <v>-1.5900000000000001E-2</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>-2.1000000000000001E-2</v>
+        <v>-8.2900000000000001E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
@@ -5829,11 +7909,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11084546837643991</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.9342337052260716</v>
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
@@ -5841,11 +7921,11 @@
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>-0.33870967741935487</v>
+        <v>-0.25645161290322582</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>-0.33870967741935487</v>
+        <v>-4.1906853181292973</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1">
@@ -5858,18 +7938,23 @@
       <c r="C18" s="9">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="14">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E18" s="15">
+        <v>-0.05</v>
+      </c>
       <c r="F18" s="9">
         <v>0.54800000000000004</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.03E-2</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>-1.7000000000000001E-2</v>
+        <v>-6.0300000000000006E-2</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="7"/>
@@ -5877,11 +7962,11 @@
       </c>
       <c r="M18" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14562051727885245</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2.935995302407516</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="4"/>
@@ -5889,11 +7974,11 @@
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="5"/>
-        <v>-0.27419354838709681</v>
+        <v>-0.16612903225806452</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="6"/>
-        <v>-0.27419354838709681</v>
+        <v>-3.1021243346655805</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1">
@@ -5906,18 +7991,23 @@
       <c r="C19" s="9">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="14">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E19" s="15">
+        <v>-5.8999999999999997E-2</v>
+      </c>
       <c r="F19" s="9">
         <v>0.55700000000000005</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-1.0999999999999999E-2</v>
+        <v>-4.6999999999999993E-3</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="1"/>
-        <v>-1.0999999999999999E-2</v>
+        <v>-6.3699999999999993E-2</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="7"/>
@@ -5925,11 +8015,11 @@
       </c>
       <c r="M19" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1369267550532493</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.4644744568408683</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="4"/>
@@ -5937,11 +8027,11 @@
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="5"/>
-        <v>-0.17741935483870966</v>
+        <v>-7.5806451612903211E-2</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="6"/>
-        <v>-0.17741935483870966</v>
+        <v>-3.5402809084537714</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="10" customFormat="1">
@@ -5954,18 +8044,23 @@
       <c r="C20" s="9">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-5.0999999999999997E-2</v>
+      </c>
       <c r="F20" s="9">
         <v>0.56100000000000005</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-2.1000000000000001E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="1"/>
-        <v>-2.1000000000000001E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="7"/>
@@ -5973,11 +8068,11 @@
       </c>
       <c r="M20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10867202782003912</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2.9947152084556663</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="4"/>
@@ -5985,11 +8080,11 @@
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="5"/>
-        <v>-0.33870967741935487</v>
+        <v>-0.25806451612903225</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="6"/>
-        <v>-0.33870967741935487</v>
+        <v>-3.2527797245846983</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1">
@@ -6002,18 +8097,23 @@
       <c r="C21" s="9">
         <v>-1.9E-2</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E21" s="15">
+        <v>-0.03</v>
+      </c>
       <c r="F21" s="9">
         <v>0.57999999999999996</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-1.9E-2</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="1"/>
-        <v>-1.9E-2</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="7"/>
@@ -6021,11 +8121,11 @@
       </c>
       <c r="M21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10432514670723754</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.7615971814445095</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="4"/>
@@ -6033,11 +8133,11 @@
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="5"/>
-        <v>-0.30645161290322581</v>
+        <v>-0.22903225806451616</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="6"/>
-        <v>-0.30645161290322581</v>
+        <v>-1.9906294395090256</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -6050,18 +8150,23 @@
       <c r="C22" s="7">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-5.8999999999999997E-2</v>
+      </c>
       <c r="F22" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.1000000000000001E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>-1.7000000000000001E-2</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
@@ -6069,11 +8174,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13040643338404695</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.4644744568408683</v>
       </c>
       <c r="O22">
         <f t="shared" si="4"/>
@@ -6081,11 +8186,11 @@
       </c>
       <c r="Q22">
         <f t="shared" si="5"/>
-        <v>-0.27419354838709681</v>
+        <v>-0.17741935483870969</v>
       </c>
       <c r="S22">
         <f t="shared" si="6"/>
-        <v>-0.27419354838709681</v>
+        <v>-3.6418938116795778</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -6098,18 +8203,23 @@
       <c r="C23" s="7">
         <v>-0.02</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="14">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E23" s="15">
+        <v>-6.6000000000000003E-2</v>
+      </c>
       <c r="F23" s="7">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
+        <v>-1.3600000000000001E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>-0.02</v>
+        <v>-7.9600000000000004E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="7"/>
@@ -6117,11 +8227,11 @@
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13910019560965009</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.8755137991779209</v>
       </c>
       <c r="O23">
         <f t="shared" si="4"/>
@@ -6129,11 +8239,11 @@
       </c>
       <c r="Q23">
         <f t="shared" si="5"/>
-        <v>-0.32258064516129031</v>
+        <v>-0.21935483870967745</v>
       </c>
       <c r="S23">
         <f t="shared" si="6"/>
-        <v>-0.32258064516129031</v>
+        <v>-4.0948686378875987</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -6146,18 +8256,23 @@
       <c r="C24" s="7">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
       <c r="F24" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>-1.4999999999999999E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>-1.4999999999999999E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="7"/>
@@ -6165,11 +8280,11 @@
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13040643338404695</v>
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.1103934233705228</v>
       </c>
       <c r="O24">
         <f t="shared" si="4"/>
@@ -6177,11 +8292,11 @@
       </c>
       <c r="Q24">
         <f t="shared" si="5"/>
-        <v>-0.24193548387096775</v>
+        <v>-0.14516129032258063</v>
       </c>
       <c r="S24">
         <f t="shared" si="6"/>
-        <v>-0.24193548387096775</v>
+        <v>-4.2555547136931038</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -6194,18 +8309,23 @@
       <c r="C25" s="7">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="14">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E25" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="F25" s="7">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.6299999999999999E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>-2.1999999999999999E-2</v>
+        <v>-9.2999999999999992E-3</v>
       </c>
       <c r="L25">
         <f t="shared" si="7"/>
@@ -6213,11 +8333,11 @@
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12388611171484459</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.41103934233705225</v>
       </c>
       <c r="O25">
         <f t="shared" si="4"/>
@@ -6225,11 +8345,11 @@
       </c>
       <c r="Q25">
         <f t="shared" si="5"/>
-        <v>-0.35483870967741932</v>
+        <v>-0.26290322580645159</v>
       </c>
       <c r="S25">
         <f t="shared" si="6"/>
-        <v>-0.35483870967741932</v>
+        <v>0.14813611653060066</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="10" customFormat="1">
@@ -6242,18 +8362,23 @@
       <c r="C26" s="9">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="14">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E26" s="15">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F26" s="9">
         <v>0.53400000000000003</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.7499999999999998E-2</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="1"/>
-        <v>-2.1999999999999999E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="7"/>
@@ -6261,11 +8386,11 @@
       </c>
       <c r="M26" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.7804825038035212E-2</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5836758661186141</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="4"/>
@@ -6273,11 +8398,11 @@
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="5"/>
-        <v>-0.35483870967741932</v>
+        <v>-0.282258064516129</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="6"/>
-        <v>-0.35483870967741932</v>
+        <v>2.3014178016024851</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="10" customFormat="1">
@@ -6290,18 +8415,23 @@
       <c r="C27" s="9">
         <v>-1.9E-2</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="14">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-0.02</v>
+      </c>
       <c r="F27" s="9">
         <v>0.52400000000000002</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-1.9E-2</v>
+        <v>-1.37E-2</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="1"/>
-        <v>-1.9E-2</v>
+        <v>-3.3700000000000001E-2</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="7"/>
@@ -6309,11 +8439,11 @@
       </c>
       <c r="M27" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11519234948924148</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.1743981209630063</v>
       </c>
       <c r="O27" s="10">
         <f t="shared" si="4"/>
@@ -6321,11 +8451,11 @@
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="5"/>
-        <v>-0.30645161290322581</v>
+        <v>-0.22096774193548388</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="6"/>
-        <v>-0.30645161290322581</v>
+        <v>-1.3953658628984902</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="10" customFormat="1">
@@ -6338,18 +8468,23 @@
       <c r="C28" s="9">
         <v>-1.9E-2</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="14">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E28" s="15">
+        <v>-1.6E-2</v>
+      </c>
       <c r="F28" s="9">
         <v>0.39900000000000002</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-1.9E-2</v>
+        <v>-1.2799999999999999E-2</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="1"/>
-        <v>-1.9E-2</v>
+        <v>-2.8799999999999999E-2</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="7"/>
@@ -6357,11 +8492,11 @@
       </c>
       <c r="M28" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13475331449684849</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.93951849677040522</v>
       </c>
       <c r="O28" s="10">
         <f t="shared" si="4"/>
@@ -6369,11 +8504,11 @@
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="5"/>
-        <v>-0.30645161290322581</v>
+        <v>-0.20645161290322578</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" si="6"/>
-        <v>-0.30645161290322581</v>
+        <v>-1.145970109673631</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="10" customFormat="1">
@@ -6386,18 +8521,23 @@
       <c r="C29" s="9">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="14">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-2.4E-2</v>
+      </c>
       <c r="F29" s="9">
         <v>0.39</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-4.0000000000000001E-3</v>
+        <v>2.4999999999999996E-3</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="1"/>
-        <v>-4.0000000000000001E-3</v>
+        <v>-2.1500000000000002E-2</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" si="7"/>
@@ -6405,11 +8545,11 @@
       </c>
       <c r="M29" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14127363616605085</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.4092777451556076</v>
       </c>
       <c r="O29" s="10">
         <f t="shared" si="4"/>
@@ -6417,1496 +8557,11 @@
       </c>
       <c r="Q29" s="10">
         <f t="shared" si="5"/>
-        <v>-6.4516129032258063E-2</v>
+        <v>4.0322580645161282E-2</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="6"/>
-        <v>-6.4516129032258063E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
-  <dimension ref="A1:S56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="10" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="11">
-        <v>45111</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10">
-        <f>C2+D2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <f>E2+H2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="10" customFormat="1">
-      <c r="A3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="11">
-        <v>45111</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10">
-        <f t="shared" ref="H3:H29" si="0">C3+D3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <f t="shared" ref="J3:J29" si="1">E3+H3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="10" customFormat="1">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="11">
-        <v>45111</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="10" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="11">
-        <v>45111</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>0.70548594292934619</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="10" customFormat="1">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="1"/>
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L10" s="10">
-        <f t="shared" si="2"/>
-        <v>0.70956297371391708</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.70967741935483863</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" si="7"/>
-        <v>0.70967741935483863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="10" customFormat="1">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C11" s="9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L11" s="10">
-        <f t="shared" si="2"/>
-        <v>0.6773101112723755</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.67741935483870974</v>
-      </c>
-      <c r="S11" s="10">
-        <f t="shared" si="7"/>
-        <v>0.67741935483870974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="10" customFormat="1">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="1"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="L12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.49991936784389612</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="10" customFormat="1">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10">
-        <f t="shared" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="1"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="L13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.43541364296081281</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="6"/>
-        <v>0.43548387096774194</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7">
-        <v>0.126</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="5"/>
-        <v>1.3267347583447404</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7">
-        <v>0.128</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="5"/>
-        <v>1.3477940402232285</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="F16" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
-        <v>1.3162051174054965</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7">
-        <v>0.122</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="5"/>
-        <v>1.2846161945877645</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="10" customFormat="1">
-      <c r="A18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="5"/>
-        <v>5.7702432347056973</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="10" customFormat="1">
-      <c r="A19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="F19" s="9">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="5"/>
-        <v>5.8650100031588925</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="10" customFormat="1">
-      <c r="A20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="5"/>
-        <v>5.9071285669158682</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="10" customFormat="1">
-      <c r="A21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="F21" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="5"/>
-        <v>6.1071917447615034</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="5"/>
-        <v>0.64230809729388227</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="5"/>
-        <v>0.62124881541539434</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
-        <v>0.7791934295040539</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="12">
-        <v>45113</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="5"/>
-        <v>0.72654522480783412</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="10" customFormat="1">
-      <c r="A26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="F26" s="9">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="5"/>
-        <v>5.6228282615562817</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="10" customFormat="1">
-      <c r="A27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="F27" s="9">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="5"/>
-        <v>5.5175318521638408</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="10" customFormat="1">
-      <c r="A28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="F28" s="9">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="5"/>
-        <v>4.2013267347583456</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="10" customFormat="1">
-      <c r="A29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="11">
-        <v>45113</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="F29" s="9">
-        <v>0.39</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="5"/>
-        <v>4.1065599663051486</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-1.3689551645104463</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -7997,10 +8652,1750 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
+  <dimension ref="A1:U56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45111</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <f>C2+D2</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J2" s="10">
+        <f>E2+H2</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L2" s="10">
+        <f>(C2/62.01)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <f>(D2/46.01)*1000</f>
+        <v>0.10432514670723754</v>
+      </c>
+      <c r="N2" s="10">
+        <f>(E2/17.03)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <f>(F2/94.97)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>(H2/62)*1000</f>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="S2" s="10">
+        <f>N2+Q2</f>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="U2" s="10" t="e">
+        <f>S2/O2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45111</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H29" si="0">C3+D3</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J29" si="1">E3+H3</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
+        <v>0.12171267115844382</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
+        <v>9.0322580645161285E-2</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
+        <v>9.0322580645161285E-2</v>
+      </c>
+      <c r="U3" s="10" t="e">
+        <f t="shared" ref="U3:U28" si="8">S3/O3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="10" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45111</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="3"/>
+        <v>0.10649858726363834</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="6"/>
+        <v>7.9032258064516123E-2</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" si="7"/>
+        <v>7.9032258064516123E-2</v>
+      </c>
+      <c r="U4" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45111</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.11519234948924148</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5483870967741932E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="7"/>
+        <v>8.5483870967741932E-2</v>
+      </c>
+      <c r="U5" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>0.10215170615083678</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.17615971814445094</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>7.5806451612903225E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>0.2519661697573542</v>
+      </c>
+      <c r="U6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>9.9978265594435997E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>7.4193548387096769E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>7.4193548387096769E-2</v>
+      </c>
+      <c r="U7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.13257987394044776</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>0.70548594292934619</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>9.838709677419355E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>9.838709677419355E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>0.13946003851709193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.10432514670723754</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="7"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="U9" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="10" customFormat="1">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>4.99E-2</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="1"/>
+        <v>4.99E-2</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.70956297371391708</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.12823299282764616</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="6"/>
+        <v>0.80483870967741933</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="7"/>
+        <v>0.80483870967741933</v>
+      </c>
+      <c r="U10" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="10" customFormat="1">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8600000000000004E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.6773101112723755</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.12171267115844382</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>5.8719906048150326E-2</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.76774193548387093</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="7"/>
+        <v>0.82646184153202129</v>
+      </c>
+      <c r="U11" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="10" customFormat="1">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="1"/>
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.49991936784389612</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.12388611171484459</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="6"/>
+        <v>0.59193548387096773</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="7"/>
+        <v>0.59193548387096773</v>
+      </c>
+      <c r="U12" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="10" customFormat="1">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.152</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.43541364296081281</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.11736579004564227</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>8.9254257193188486</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="6"/>
+        <v>0.52258064516129032</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="7"/>
+        <v>9.4480063644801398</v>
+      </c>
+      <c r="U13" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.126</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>9.563138448163444E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>1.3267347583447404</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>7.0967741935483872E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="7"/>
+        <v>7.0967741935483872E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>5.34905273937532E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.10432514670723754</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1.3477940402232285</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="7"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>5.7441532258064504E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.10867202782003912</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>1.3162051174054965</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="7"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>6.1270967741935481E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.122</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>0.11084546837643991</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>1.2846161945877645</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>8.2258064516129034E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>8.2258064516129034E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>6.4033183500793234E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="10" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.14562051727885245</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="5"/>
+        <v>5.7702432347056973</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
+        <v>0.10806451612903227</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="7"/>
+        <v>0.10806451612903227</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="8"/>
+        <v>1.8727896161996702E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="10" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f t="shared" si="0"/>
+        <v>6.3E-3</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3E-3</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.1369267550532493</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="5"/>
+        <v>5.8650100031588925</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
+        <v>0.10161290322580645</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="7"/>
+        <v>0.10161290322580645</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="8"/>
+        <v>1.7325273643365956E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="10" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.10867202782003912</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
+        <v>5.9071285669158682</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="6"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="7"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="8"/>
+        <v>1.3652176413087228E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="10" customFormat="1">
+      <c r="A21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.10432514670723754</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="5"/>
+        <v>6.1071917447615034</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="6"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="7"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2676751946607341E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.13040643338404695</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0.64230809729388227</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="7"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="8"/>
+        <v>0.15066631411951348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.13910019560965009</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>0.62124881541539434</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.1032258064516129</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="7"/>
+        <v>0.1032258064516129</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="8"/>
+        <v>0.16615855658829962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.13040643338404695</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0.7791934295040539</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="7"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="8"/>
+        <v>0.12419790758500436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="12">
+        <v>45113</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E25" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>0.12388611171484459</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>0.41103934233705225</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.72654522480783412</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>9.1935483870967741E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="7"/>
+        <v>0.50297482620802003</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="8"/>
+        <v>0.69228288760834289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="10" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E26" s="15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8499999999999995E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>9.7804825038035212E-2</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>2.5836758661186141</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="5"/>
+        <v>5.6228282615562817</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="6"/>
+        <v>7.2580645161290314E-2</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="7"/>
+        <v>2.6562565112799046</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="8"/>
+        <v>0.47240576943118445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="10" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.11519234948924148</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="5"/>
+        <v>5.5175318521638408</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="6"/>
+        <v>8.5483870967741932E-2</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="7"/>
+        <v>8.5483870967741932E-2</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="8"/>
+        <v>1.5493135927111549E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="10" customFormat="1">
+      <c r="A28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.13475331449684849</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2013267347583456</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="U28" s="10">
+        <f t="shared" si="8"/>
+        <v>2.3802005012531321E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="10" customFormat="1">
+      <c r="A29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="11">
+        <v>45113</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.14127363616605085</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="5"/>
+        <v>4.1065599663051486</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.10483870967741934</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="7"/>
+        <v>0.10483870967741934</v>
+      </c>
+      <c r="U29" s="10">
+        <f>S29/O29</f>
+        <v>2.5529569892473118E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81674220-8498-41C1-B8D9-7D721B9C6F39}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/data/2023-07-06_bioassay_3.xlsx
+++ b/data/2023-07-06_bioassay_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F661A94-3608-46C2-A0EF-44D8F761A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA46443-A126-49CA-8BA7-6FCA56003394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{5CCCB351-C044-4070-A66C-061B35931ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chl" sheetId="1" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1188,6 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CDBA2A-F3DE-4E4B-AD2E-26C867225FF3}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32:F36"/>
     </sheetView>
   </sheetViews>
@@ -7031,7 +7032,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7109,28 +7110,28 @@
         <v>-8.2199999999999995E-2</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
-        <v>-0.35478148685695854</v>
+        <f>(C2/14.01)*1000</f>
+        <v>-1.5703069236259812</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.10432514670723754</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.34261241970021411</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
-        <v>-3.8167938931297707</v>
+        <f>(E2/14.01)*1000</f>
+        <v>-4.6395431834404004</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
-        <v>-0.10529640939243973</v>
+        <f>(F2/30.97)*1000</f>
+        <v>-0.32289312237649342</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>-0.27741935483870966</v>
+        <f>L2+M2</f>
+        <v>-1.2276945039257672</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>-4.0942132479684803</v>
+        <f>L2+M2+N2</f>
+        <v>-5.8672376873661678</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1">
@@ -7162,28 +7163,28 @@
         <v>-7.5399999999999995E-2</v>
       </c>
       <c r="L3" s="10">
-        <f>(C3/62.01)*1000</f>
-        <v>-0.33865505563618775</v>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
+        <v>-1.4989293361884368</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="2">(D3/46.01)*1000</f>
-        <v>0.12171267115844382</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.3997144896502498</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="3">(E3/17.03)*1000</f>
-        <v>-3.523194362889019</v>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
+        <v>-4.282655246252677</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="4">(F3/94.97)*1000</f>
-        <v>-0.11582605033168368</v>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
+        <v>-0.35518243461414267</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="5">(H3/62)*1000</f>
-        <v>-0.24838709677419357</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>-1.099214846538187</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="6">N3+Q3</f>
-        <v>-3.7715814596632127</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>-5.381870092790864</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="10" customFormat="1">
@@ -7215,28 +7216,28 @@
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L29" si="7">(C4/62.01)*1000</f>
-        <v>-0.25802289953233348</v>
+        <f t="shared" si="2"/>
+        <v>-1.1420413990007139</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10649858726363834</v>
+        <f t="shared" si="3"/>
+        <v>0.34975017844396861</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" si="3"/>
-        <v>2.5249559600704634</v>
+        <f t="shared" si="4"/>
+        <v>3.0692362598144181</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" si="4"/>
-        <v>-0.10529640939243973</v>
+        <f t="shared" si="5"/>
+        <v>-0.32289312237649342</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.17903225806451614</v>
+        <f t="shared" si="6"/>
+        <v>-0.79229122055674528</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" si="6"/>
-        <v>2.3459237020059471</v>
+        <f t="shared" si="7"/>
+        <v>2.2769450392576727</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1">
@@ -7268,28 +7269,28 @@
         <v>-5.3699999999999998E-2</v>
       </c>
       <c r="L5" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.49964311206281231</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37830121341898648</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.71163454675232</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="5"/>
+        <v>-3.2289312237649338E-2</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.12134189864382583</v>
+      </c>
+      <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>-0.1128850185453959</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="2"/>
-        <v>0.11519234948924148</v>
-      </c>
-      <c r="N5" s="10">
-        <f t="shared" si="3"/>
-        <v>-3.0534351145038165</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="4"/>
-        <v>-1.0529640939243972E-2</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="5"/>
-        <v>-2.7419354838709682E-2</v>
-      </c>
-      <c r="S5" s="10">
-        <f t="shared" si="6"/>
-        <v>-3.0808544693425262</v>
+        <v>-3.8329764453961457</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7320,29 +7321,29 @@
         <f t="shared" si="1"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.42826552462526768</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33547466095645967</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="4"/>
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.19373587342589604</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="6"/>
+        <v>-9.279086366880801E-2</v>
+      </c>
+      <c r="S6" s="10">
         <f t="shared" si="7"/>
-        <v>-9.6758587324625056E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.10215170615083678</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0.17615971814445094</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
-        <v>-6.3177845635463831E-2</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>-2.0967741935483869E-2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
-        <v>0.15519197620896708</v>
+        <v>0.12134189864382583</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -7373,29 +7374,29 @@
         <f t="shared" si="1"/>
         <v>-3.44E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.78515346181299062</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="3"/>
+        <v>0.32833690221270517</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" si="4"/>
+        <v>-1.9985724482512492</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.32289312237649342</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.45681655960028544</v>
+      </c>
+      <c r="S7" s="10">
         <f t="shared" si="7"/>
-        <v>-0.17739074342847927</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>9.9978265594435997E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>-1.644157369348209</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
-        <v>-0.10529640939243973</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>-0.10322580645161289</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
-        <v>-1.7473831757998219</v>
+        <v>-2.4553890078515348</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -7426,29 +7427,29 @@
         <f t="shared" si="1"/>
         <v>-7.8899999999999998E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.99928622412562462</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="3"/>
+        <v>0.43540328336902218</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="4"/>
+        <v>-5.0678087080656669</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="5"/>
+        <v>2.1633839199225058</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.56388294075660239</v>
+      </c>
+      <c r="S8" s="10">
         <f t="shared" si="7"/>
-        <v>-0.2257700370907918</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>0.13257987394044776</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>-4.1691133294186722</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
-        <v>0.70548594292934619</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>-0.1274193548387097</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
-        <v>-4.2965326842573823</v>
+        <v>-5.6316916488222688</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7479,29 +7480,29 @@
         <f t="shared" si="1"/>
         <v>-9.1200000000000003E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.4275517487508922</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="4"/>
+        <v>-5.4246966452533902</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.16144656118824671</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.0849393290506781</v>
+      </c>
+      <c r="S9" s="10">
         <f t="shared" si="7"/>
-        <v>-0.32252862441541685</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>0.10432514670723754</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>-4.4627128596594243</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
-        <v>-5.2648204696219864E-2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>-0.24516129032258069</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="6"/>
-        <v>-4.7078741499820049</v>
+        <v>-6.5096359743040679</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="10" customFormat="1">
@@ -7533,28 +7534,28 @@
         <v>4.99E-2</v>
       </c>
       <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>3.1406138472519625</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="3"/>
+        <v>0.42112776588151318</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.22602518566354537</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="6"/>
+        <v>3.5617416131334756</v>
+      </c>
+      <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>0.70956297371391708</v>
-      </c>
-      <c r="M10" s="10">
-        <f t="shared" si="2"/>
-        <v>0.12823299282764616</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="4"/>
-        <v>-7.3707486574707798E-2</v>
-      </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="5"/>
-        <v>0.80483870967741933</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" si="6"/>
-        <v>0.80483870967741933</v>
+        <v>3.5617416131334756</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="10" customFormat="1">
@@ -7586,28 +7587,28 @@
         <v>4.8600000000000004E-2</v>
       </c>
       <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>2.9978586723768736</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3997144896502498</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>7.1377587437544618E-2</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.19373587342589604</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="6"/>
+        <v>3.3975731620271237</v>
+      </c>
+      <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>0.6773101112723755</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="2"/>
-        <v>0.12171267115844382</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>5.8719906048150326E-2</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
-        <v>-6.3177845635463831E-2</v>
-      </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="5"/>
-        <v>0.76774193548387093</v>
-      </c>
-      <c r="S11" s="10">
-        <f t="shared" si="6"/>
-        <v>0.82646184153202129</v>
+        <v>3.4689507494646681</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="10" customFormat="1">
@@ -7639,28 +7640,28 @@
         <v>-2.1300000000000006E-2</v>
       </c>
       <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2127052105638829</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="3"/>
+        <v>0.4068522483940043</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.1399000713775882</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.22602518566354537</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6195574589578872</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>0.49991936784389612</v>
-      </c>
-      <c r="M12" s="10">
-        <f t="shared" si="2"/>
-        <v>0.12388611171484459</v>
-      </c>
-      <c r="N12" s="10">
-        <f t="shared" si="3"/>
-        <v>-3.4057545507927185</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
-        <v>-7.3707486574707798E-2</v>
-      </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="5"/>
-        <v>0.59193548387096773</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="6"/>
-        <v>-2.8138190669217509</v>
+        <v>-1.520342612419701</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="10" customFormat="1">
@@ -7692,28 +7693,28 @@
         <v>0.18440000000000001</v>
       </c>
       <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9271948608137046</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="3"/>
+        <v>0.38543897216274092</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="4"/>
+        <v>10.84939329050678</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.19373587342589604</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="6"/>
+        <v>2.3126338329764455</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>0.43541364296081281</v>
-      </c>
-      <c r="M13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.11736579004564227</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="3"/>
-        <v>8.9254257193188486</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="4"/>
-        <v>-6.3177845635463831E-2</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="5"/>
-        <v>0.52258064516129032</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="6"/>
-        <v>9.4480063644801398</v>
+        <v>13.162027123483226</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7744,29 +7745,29 @@
         <f t="shared" si="1"/>
         <v>-8.1599999999999992E-2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.0706638115631693</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" si="4"/>
+        <v>-5.0678087080656669</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="5"/>
+        <v>4.0684533419438162</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.75660242683797296</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="7"/>
-        <v>-0.24189646831156264</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>9.563138448163444E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>-4.1691133294186722</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
-        <v>1.3267347583447404</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>-0.17096774193548384</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
-        <v>-4.340081071354156</v>
+        <v>-5.8244111349036398</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7797,29 +7798,29 @@
         <f t="shared" si="1"/>
         <v>-7.1199999999999999E-2</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.57102069950035694</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="3"/>
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.8536759457530341</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="5"/>
+        <v>4.1330319664191153</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.22840827980014283</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="7"/>
-        <v>-0.12901144976616674</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>0.10432514670723754</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>-3.9929536112742219</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
-        <v>1.3477940402232285</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>-5.1612903225806459E-2</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>-4.044566514500028</v>
+        <v>-5.0820842255531771</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7850,29 +7851,29 @@
         <f t="shared" si="1"/>
         <v>-8.7000000000000008E-2</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.5703069236259812</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="3"/>
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.9964311206281229</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="5"/>
+        <v>4.0361640297061676</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.2134189864382581</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="7"/>
-        <v>-0.35478148685695854</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>0.10867202782003912</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
-        <v>-4.1103934233705228</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
-        <v>1.3162051174054965</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>-0.27419354838709675</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="6"/>
-        <v>-4.3845869717576198</v>
+        <v>-6.209850107066381</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -7903,29 +7904,29 @@
         <f t="shared" si="1"/>
         <v>-8.2900000000000001E-2</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.4989293361884368</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.36402569593147754</v>
+      </c>
+      <c r="N17" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.7822983583154892</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="5"/>
+        <v>3.939296092993219</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.1349036402569592</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="7"/>
-        <v>-0.33865505563618775</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.11084546837643991</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>-3.9342337052260716</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>1.2846161945877645</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>-0.25645161290322582</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
-        <v>-4.1906853181292973</v>
+        <v>-5.9172019985724482</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="10" customFormat="1">
@@ -7957,28 +7958,28 @@
         <v>-6.0300000000000006E-2</v>
       </c>
       <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.2134189864382585</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="3"/>
+        <v>0.47822983583154893</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.5688793718772307</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="5"/>
+        <v>17.694543106231841</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.73518915060670964</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>-0.27414933075310438</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" si="2"/>
-        <v>0.14562051727885245</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" si="3"/>
-        <v>-2.935995302407516</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="4"/>
-        <v>5.7702432347056973</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.16612903225806452</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="6"/>
-        <v>-3.1021243346655805</v>
+        <v>-4.3040685224839406</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="10" customFormat="1">
@@ -8010,28 +8011,28 @@
         <v>-6.3699999999999993E-2</v>
       </c>
       <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.78515346181299062</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="3"/>
+        <v>0.44967880085653106</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.2112776588151322</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="5"/>
+        <v>17.985146916370685</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.33547466095645956</v>
+      </c>
+      <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>-0.17739074342847927</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" si="2"/>
-        <v>0.1369267550532493</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="3"/>
-        <v>-3.4644744568408683</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="4"/>
-        <v>5.8650100031588925</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="5"/>
-        <v>-7.5806451612903211E-2</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="6"/>
-        <v>-3.5402809084537714</v>
+        <v>-4.546752319771592</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="10" customFormat="1">
@@ -8063,28 +8064,28 @@
         <v>-6.7000000000000004E-2</v>
       </c>
       <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.4989293361884368</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.6402569593147751</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="5"/>
+        <v>18.114304165321283</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.1420413990007137</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>-0.33865505563618775</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10867202782003912</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="3"/>
-        <v>-2.9947152084556663</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="4"/>
-        <v>5.9071285669158682</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.25806451612903225</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="6"/>
-        <v>-3.2527797245846983</v>
+        <v>-4.7822983583154883</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1">
@@ -8116,28 +8117,28 @@
         <v>-4.4200000000000003E-2</v>
       </c>
       <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.3561741613133476</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.1413276231263385</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="5"/>
+        <v>18.727801097836615</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.0135617416131335</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>-0.30640219319464607</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="2"/>
-        <v>0.10432514670723754</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="3"/>
-        <v>-1.7615971814445095</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="4"/>
-        <v>6.1071917447615034</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.22903225806451616</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.9906294395090256</v>
+        <v>-3.1548893647394722</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -8168,29 +8169,29 @@
         <f t="shared" si="1"/>
         <v>-6.9999999999999993E-2</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.2134189864382585</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="3"/>
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.2112776588151322</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9696480464966095</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.78515346181299084</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="7"/>
-        <v>-0.27414933075310438</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0.13040643338404695</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="3"/>
-        <v>-3.4644744568408683</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
-        <v>0.64230809729388227</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>-0.17741935483870969</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
-        <v>-3.6418938116795778</v>
+        <v>-4.9964311206281229</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -8221,29 +8222,29 @@
         <f t="shared" si="1"/>
         <v>-7.9600000000000004E-2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.4275517487508922</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="3"/>
+        <v>0.4568165596002855</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.7109207708779444</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="5"/>
+        <v>1.9050694220213109</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.97073518915060664</v>
+      </c>
+      <c r="S23" s="10">
         <f t="shared" si="7"/>
-        <v>-0.32252862441541685</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.13910019560965009</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="3"/>
-        <v>-3.8755137991779209</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>0.62124881541539434</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>-0.21935483870967745</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="6"/>
-        <v>-4.0948686378875987</v>
+        <v>-5.681655960028551</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -8274,29 +8275,29 @@
         <f t="shared" si="1"/>
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.0706638115631693</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="3"/>
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" si="4"/>
+        <v>-4.9964311206281229</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="5"/>
+        <v>2.3894091055860511</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.64239828693790157</v>
+      </c>
+      <c r="S24" s="10">
         <f t="shared" si="7"/>
-        <v>-0.24189646831156264</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.13040643338404695</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
-        <v>-4.1103934233705228</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="4"/>
-        <v>0.7791934295040539</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>-0.14516129032258063</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="6"/>
-        <v>-4.2555547136931038</v>
+        <v>-5.6388294075660248</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -8327,29 +8328,29 @@
         <f t="shared" si="1"/>
         <v>-9.2999999999999992E-3</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.5703069236259812</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" si="3"/>
+        <v>0.4068522483940043</v>
+      </c>
+      <c r="N25" s="18">
+        <f t="shared" si="4"/>
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="O25" s="18">
+        <f t="shared" si="5"/>
+        <v>2.2279625443978048</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.163454675231977</v>
+      </c>
+      <c r="S25" s="10">
         <f t="shared" si="7"/>
-        <v>-0.35478148685695854</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0.12388611171484459</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="3"/>
-        <v>0.41103934233705225</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
-        <v>0.72654522480783412</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>-0.26290322580645159</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="6"/>
-        <v>0.14813611653060066</v>
+        <v>-0.66381156316916468</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="10" customFormat="1">
@@ -8381,28 +8382,28 @@
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.5703069236259812</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="3"/>
+        <v>0.32119914346895073</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="4"/>
+        <v>3.1406138472519625</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="5"/>
+        <v>17.242492734904751</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.2491077801570305</v>
+      </c>
+      <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>-0.35478148685695854</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="2"/>
-        <v>9.7804825038035212E-2</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="3"/>
-        <v>2.5836758661186141</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="4"/>
-        <v>5.6228282615562817</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.282258064516129</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="6"/>
-        <v>2.3014178016024851</v>
+        <v>1.891506067094932</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="10" customFormat="1">
@@ -8434,28 +8435,28 @@
         <v>-3.3700000000000001E-2</v>
       </c>
       <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.3561741613133476</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37830121341898648</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.4275517487508922</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="5"/>
+        <v>16.919599612528256</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.97787294789436108</v>
+      </c>
+      <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>-0.30640219319464607</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="2"/>
-        <v>0.11519234948924148</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="3"/>
-        <v>-1.1743981209630063</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="4"/>
-        <v>5.5175318521638408</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.22096774193548388</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.3953658628984902</v>
+        <v>-2.4054246966452535</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="10" customFormat="1">
@@ -8487,28 +8488,28 @@
         <v>-2.8799999999999999E-2</v>
       </c>
       <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>-1.3561741613133476</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.44254104211277656</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.1420413990007139</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="5"/>
+        <v>12.883435582822088</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="6"/>
+        <v>-0.913633119200571</v>
+      </c>
+      <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>-0.30640219319464607</v>
-      </c>
-      <c r="M28" s="10">
-        <f t="shared" si="2"/>
-        <v>0.13475331449684849</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="3"/>
-        <v>-0.93951849677040522</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="4"/>
-        <v>4.2013267347583456</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="5"/>
-        <v>-0.20645161290322578</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.145970109673631</v>
+        <v>-2.0556745182012848</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="10" customFormat="1">
@@ -8540,28 +8541,28 @@
         <v>-2.1500000000000002E-2</v>
       </c>
       <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.28551034975017847</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.46395431834404</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.7130620985010707</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="5"/>
+        <v>12.592831772683242</v>
+      </c>
+      <c r="Q29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.17844396859386152</v>
+      </c>
+      <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>-6.4505724883083371E-2</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="2"/>
-        <v>0.14127363616605085</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="3"/>
-        <v>-1.4092777451556076</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="4"/>
-        <v>4.1065599663051486</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="5"/>
-        <v>4.0322580645161282E-2</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.3689551645104463</v>
+        <v>-1.5346181299072092</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -8655,8 +8656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D503721-5177-475D-B124-D41F3E74F654}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" activeCellId="2" sqref="L6:O9 L14:O17 L22:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8737,28 +8738,28 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="L2" s="10">
-        <f>(C2/62.01)*1000</f>
+        <f>(C2/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="M2" s="10">
-        <f>(D2/46.01)*1000</f>
-        <v>0.10432514670723754</v>
+        <f>(D2/14.01)*1000</f>
+        <v>0.34261241970021411</v>
       </c>
       <c r="N2" s="10">
-        <f>(E2/17.03)*1000</f>
+        <f>(E2/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="O2" s="10">
-        <f>(F2/94.97)*1000</f>
+        <f>(F2/30.97)*1000</f>
         <v>0</v>
       </c>
       <c r="Q2" s="10">
-        <f>(H2/62)*1000</f>
-        <v>7.7419354838709667E-2</v>
+        <f>L2+M2</f>
+        <v>0.34261241970021411</v>
       </c>
       <c r="S2" s="10">
-        <f>N2+Q2</f>
-        <v>7.7419354838709667E-2</v>
+        <f>L2+M2+N2</f>
+        <v>0.34261241970021411</v>
       </c>
       <c r="U2" s="10" t="e">
         <f>S2/O2</f>
@@ -8794,28 +8795,28 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:L29" si="2">(C3/62.01)*1000</f>
+        <f t="shared" ref="L3:L29" si="2">(C3/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="M3" s="10">
-        <f t="shared" ref="M3:M29" si="3">(D3/46.01)*1000</f>
-        <v>0.12171267115844382</v>
+        <f t="shared" ref="M3:M29" si="3">(D3/14.01)*1000</f>
+        <v>0.3997144896502498</v>
       </c>
       <c r="N3" s="10">
-        <f t="shared" ref="N3:N29" si="4">(E3/17.03)*1000</f>
+        <f t="shared" ref="N3:N29" si="4">(E3/14.01)*1000</f>
         <v>0</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O29" si="5">(F3/94.97)*1000</f>
+        <f t="shared" ref="O3:O29" si="5">(F3/30.97)*1000</f>
         <v>0</v>
       </c>
       <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q29" si="6">(H3/62)*1000</f>
-        <v>9.0322580645161285E-2</v>
+        <f t="shared" ref="Q3:Q29" si="6">L3+M3</f>
+        <v>0.3997144896502498</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S29" si="7">N3+Q3</f>
-        <v>9.0322580645161285E-2</v>
+        <f t="shared" ref="S3:S29" si="7">L3+M3+N3</f>
+        <v>0.3997144896502498</v>
       </c>
       <c r="U3" s="10" t="e">
         <f t="shared" ref="U3:U28" si="8">S3/O3</f>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="M4" s="10">
         <f t="shared" si="3"/>
-        <v>0.10649858726363834</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="N4" s="10">
         <f t="shared" si="4"/>
@@ -8868,11 +8869,11 @@
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="6"/>
-        <v>7.9032258064516123E-2</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="S4" s="10">
         <f t="shared" si="7"/>
-        <v>7.9032258064516123E-2</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="U4" s="10" t="e">
         <f t="shared" si="8"/>
@@ -8913,7 +8914,7 @@
       </c>
       <c r="M5" s="10">
         <f t="shared" si="3"/>
-        <v>0.11519234948924148</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="4"/>
@@ -8925,11 +8926,11 @@
       </c>
       <c r="Q5" s="10">
         <f t="shared" si="6"/>
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="7"/>
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="U5" s="10" t="e">
         <f t="shared" si="8"/>
@@ -8964,29 +8965,29 @@
         <f t="shared" si="1"/>
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="18">
         <f t="shared" si="3"/>
-        <v>0.10215170615083678</v>
-      </c>
-      <c r="N6">
+        <v>0.33547466095645967</v>
+      </c>
+      <c r="N6" s="18">
         <f t="shared" si="4"/>
-        <v>0.17615971814445094</v>
-      </c>
-      <c r="O6">
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="O6" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>7.5806451612903225E-2</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>0.2519661697573542</v>
+        <v>0.54960742326909351</v>
       </c>
       <c r="U6" t="e">
         <f t="shared" si="8"/>
@@ -9021,29 +9022,29 @@
         <f t="shared" si="1"/>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="18">
         <f t="shared" si="3"/>
-        <v>9.9978265594435997E-2</v>
-      </c>
-      <c r="N7">
+        <v>0.32833690221270517</v>
+      </c>
+      <c r="N7" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>7.4193548387096769E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="S7">
         <f t="shared" si="7"/>
-        <v>7.4193548387096769E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="U7" t="e">
         <f t="shared" si="8"/>
@@ -9078,33 +9079,33 @@
         <f t="shared" si="1"/>
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="18">
         <f t="shared" si="3"/>
-        <v>0.13257987394044776</v>
-      </c>
-      <c r="N8">
+        <v>0.43540328336902218</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="18">
         <f t="shared" si="5"/>
-        <v>0.70548594292934619</v>
+        <v>2.1633839199225058</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>9.838709677419355E-2</v>
+        <v>0.43540328336902218</v>
       </c>
       <c r="S8">
         <f t="shared" si="7"/>
-        <v>9.838709677419355E-2</v>
+        <v>0.43540328336902218</v>
       </c>
       <c r="U8">
         <f t="shared" si="8"/>
-        <v>0.13946003851709193</v>
+        <v>0.20126029381997934</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -9135,29 +9136,29 @@
         <f t="shared" si="1"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="18">
         <f t="shared" si="3"/>
-        <v>0.10432514670723754</v>
-      </c>
-      <c r="N9">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="U9" t="e">
         <f t="shared" si="8"/>
@@ -9194,11 +9195,11 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>0.70956297371391708</v>
+        <v>3.1406138472519625</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>0.12823299282764616</v>
+        <v>0.42112776588151318</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="4"/>
@@ -9210,11 +9211,11 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="6"/>
-        <v>0.80483870967741933</v>
+        <v>3.5617416131334756</v>
       </c>
       <c r="S10" s="10">
         <f t="shared" si="7"/>
-        <v>0.80483870967741933</v>
+        <v>3.5617416131334756</v>
       </c>
       <c r="U10" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9251,15 +9252,15 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>0.6773101112723755</v>
+        <v>2.9978586723768736</v>
       </c>
       <c r="M11" s="10">
         <f t="shared" si="3"/>
-        <v>0.12171267115844382</v>
+        <v>0.3997144896502498</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="4"/>
-        <v>5.8719906048150326E-2</v>
+        <v>7.1377587437544618E-2</v>
       </c>
       <c r="O11" s="10">
         <f t="shared" si="5"/>
@@ -9267,11 +9268,11 @@
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="6"/>
-        <v>0.76774193548387093</v>
+        <v>3.3975731620271237</v>
       </c>
       <c r="S11" s="10">
         <f t="shared" si="7"/>
-        <v>0.82646184153202129</v>
+        <v>3.4689507494646681</v>
       </c>
       <c r="U11" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9308,11 +9309,11 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>0.49991936784389612</v>
+        <v>2.2127052105638829</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="3"/>
-        <v>0.12388611171484459</v>
+        <v>0.4068522483940043</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="4"/>
@@ -9324,11 +9325,11 @@
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="6"/>
-        <v>0.59193548387096773</v>
+        <v>2.6195574589578872</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="7"/>
-        <v>0.59193548387096773</v>
+        <v>2.6195574589578872</v>
       </c>
       <c r="U12" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9365,15 +9366,15 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>0.43541364296081281</v>
+        <v>1.9271948608137046</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="3"/>
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="4"/>
-        <v>8.9254257193188486</v>
+        <v>10.84939329050678</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="5"/>
@@ -9381,11 +9382,11 @@
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="6"/>
-        <v>0.52258064516129032</v>
+        <v>2.3126338329764455</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>9.4480063644801398</v>
+        <v>13.162027123483226</v>
       </c>
       <c r="U13" s="10" t="e">
         <f t="shared" si="8"/>
@@ -9420,33 +9421,33 @@
         <f t="shared" si="1"/>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="18">
         <f t="shared" si="3"/>
-        <v>9.563138448163444E-2</v>
-      </c>
-      <c r="N14">
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="18">
         <f t="shared" si="5"/>
-        <v>1.3267347583447404</v>
+        <v>4.0684533419438162</v>
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>7.0967741935483872E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="S14">
         <f t="shared" si="7"/>
-        <v>7.0967741935483872E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="U14">
         <f t="shared" si="8"/>
-        <v>5.34905273937532E-2</v>
+        <v>7.7194294324915327E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -9477,33 +9478,33 @@
         <f t="shared" si="1"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="18">
         <f t="shared" si="3"/>
-        <v>0.10432514670723754</v>
-      </c>
-      <c r="N15">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="18">
         <f t="shared" si="5"/>
-        <v>1.3477940402232285</v>
+        <v>4.1330319664191153</v>
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="S15">
         <f t="shared" si="7"/>
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="U15">
         <f t="shared" si="8"/>
-        <v>5.7441532258064504E-2</v>
+        <v>8.289614561027836E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -9534,33 +9535,33 @@
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="18">
         <f t="shared" si="3"/>
-        <v>0.10867202782003912</v>
-      </c>
-      <c r="N16">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="18">
         <f t="shared" si="5"/>
-        <v>1.3162051174054965</v>
+        <v>4.0361640297061676</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="S16">
         <f t="shared" si="7"/>
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="U16">
         <f t="shared" si="8"/>
-        <v>6.1270967741935481E-2</v>
+        <v>8.8422555317630255E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -9591,33 +9592,33 @@
         <f t="shared" si="1"/>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="18">
         <f t="shared" si="3"/>
-        <v>0.11084546837643991</v>
-      </c>
-      <c r="N17">
+        <v>0.36402569593147754</v>
+      </c>
+      <c r="N17" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="18">
         <f t="shared" si="5"/>
-        <v>1.2846161945877645</v>
+        <v>3.939296092993219</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>8.2258064516129034E-2</v>
+        <v>0.36402569593147754</v>
       </c>
       <c r="S17">
         <f t="shared" si="7"/>
-        <v>8.2258064516129034E-2</v>
+        <v>0.36402569593147754</v>
       </c>
       <c r="U17">
         <f t="shared" si="8"/>
-        <v>6.4033183500793234E-2</v>
+        <v>9.240881805735951E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="10" customFormat="1">
@@ -9654,7 +9655,7 @@
       </c>
       <c r="M18" s="10">
         <f t="shared" si="3"/>
-        <v>0.14562051727885245</v>
+        <v>0.47822983583154893</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="4"/>
@@ -9662,19 +9663,19 @@
       </c>
       <c r="O18" s="10">
         <f t="shared" si="5"/>
-        <v>5.7702432347056973</v>
+        <v>17.694543106231841</v>
       </c>
       <c r="Q18" s="10">
         <f t="shared" si="6"/>
-        <v>0.10806451612903227</v>
+        <v>0.47822983583154893</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="7"/>
-        <v>0.10806451612903227</v>
+        <v>0.47822983583154893</v>
       </c>
       <c r="U18" s="10">
         <f t="shared" si="8"/>
-        <v>1.8727896161996702E-2</v>
+        <v>2.7026967181939903E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="10" customFormat="1">
@@ -9711,7 +9712,7 @@
       </c>
       <c r="M19" s="10">
         <f t="shared" si="3"/>
-        <v>0.1369267550532493</v>
+        <v>0.44967880085653106</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="4"/>
@@ -9719,19 +9720,19 @@
       </c>
       <c r="O19" s="10">
         <f t="shared" si="5"/>
-        <v>5.8650100031588925</v>
+        <v>17.985146916370685</v>
       </c>
       <c r="Q19" s="10">
         <f t="shared" si="6"/>
-        <v>0.10161290322580645</v>
+        <v>0.44967880085653106</v>
       </c>
       <c r="S19" s="10">
         <f t="shared" si="7"/>
-        <v>0.10161290322580645</v>
+        <v>0.44967880085653106</v>
       </c>
       <c r="U19" s="10">
         <f t="shared" si="8"/>
-        <v>1.7325273643365956E-2</v>
+        <v>2.5002787185864926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="10" customFormat="1">
@@ -9768,7 +9769,7 @@
       </c>
       <c r="M20" s="10">
         <f t="shared" si="3"/>
-        <v>0.10867202782003912</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="4"/>
@@ -9776,19 +9777,19 @@
       </c>
       <c r="O20" s="10">
         <f t="shared" si="5"/>
-        <v>5.9071285669158682</v>
+        <v>18.114304165321283</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="6"/>
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="7"/>
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="U20" s="10">
         <f t="shared" si="8"/>
-        <v>1.3652176413087228E-2</v>
+        <v>1.970199539162884E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="10" customFormat="1">
@@ -9825,7 +9826,7 @@
       </c>
       <c r="M21" s="10">
         <f t="shared" si="3"/>
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="4"/>
@@ -9833,19 +9834,19 @@
       </c>
       <c r="O21" s="10">
         <f t="shared" si="5"/>
-        <v>6.1071917447615034</v>
+        <v>18.727801097836615</v>
       </c>
       <c r="Q21" s="10">
         <f t="shared" si="6"/>
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="7"/>
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="U21" s="10">
         <f t="shared" si="8"/>
-        <v>1.2676751946607341E-2</v>
+        <v>1.8294321789854538E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -9876,33 +9877,33 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="18">
         <f t="shared" si="3"/>
-        <v>0.13040643338404695</v>
-      </c>
-      <c r="N22">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="N22" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="18">
         <f t="shared" si="5"/>
-        <v>0.64230809729388227</v>
+        <v>1.9696480464966095</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>9.6774193548387094E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="S22">
         <f t="shared" si="7"/>
-        <v>9.6774193548387094E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="U22">
         <f t="shared" si="8"/>
-        <v>0.15066631411951348</v>
+        <v>0.21743251307614</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -9933,33 +9934,33 @@
         <f t="shared" si="1"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="18">
         <f t="shared" si="3"/>
-        <v>0.13910019560965009</v>
-      </c>
-      <c r="N23">
+        <v>0.4568165596002855</v>
+      </c>
+      <c r="N23" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="18">
         <f t="shared" si="5"/>
-        <v>0.62124881541539434</v>
+        <v>1.9050694220213109</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.1032258064516129</v>
+        <v>0.4568165596002855</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>0.1032258064516129</v>
+        <v>0.4568165596002855</v>
       </c>
       <c r="U23">
         <f t="shared" si="8"/>
-        <v>0.16615855658829962</v>
+        <v>0.23978998052238715</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -9990,33 +9991,33 @@
         <f t="shared" si="1"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="18">
         <f t="shared" si="3"/>
-        <v>0.13040643338404695</v>
-      </c>
-      <c r="N24">
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="N24" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="18">
         <f t="shared" si="5"/>
-        <v>0.7791934295040539</v>
+        <v>2.3894091055860511</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>9.6774193548387094E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="S24">
         <f t="shared" si="7"/>
-        <v>9.6774193548387094E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="U24">
         <f t="shared" si="8"/>
-        <v>0.12419790758500436</v>
+        <v>0.1792349094276289</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -10047,33 +10048,33 @@
         <f t="shared" si="1"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="18">
         <f t="shared" si="3"/>
-        <v>0.12388611171484459</v>
-      </c>
-      <c r="N25">
+        <v>0.4068522483940043</v>
+      </c>
+      <c r="N25" s="18">
         <f t="shared" si="4"/>
-        <v>0.41103934233705225</v>
-      </c>
-      <c r="O25">
+        <v>0.49964311206281231</v>
+      </c>
+      <c r="O25" s="18">
         <f t="shared" si="5"/>
-        <v>0.72654522480783412</v>
+        <v>2.2279625443978048</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>9.1935483870967741E-2</v>
+        <v>0.4068522483940043</v>
       </c>
       <c r="S25">
         <f t="shared" si="7"/>
-        <v>0.50297482620802003</v>
+        <v>0.90649536045681667</v>
       </c>
       <c r="U25">
         <f t="shared" si="8"/>
-        <v>0.69228288760834289</v>
+        <v>0.40687190309199428</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="10" customFormat="1">
@@ -10110,27 +10111,27 @@
       </c>
       <c r="M26" s="10">
         <f t="shared" si="3"/>
-        <v>9.7804825038035212E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="N26" s="10">
         <f t="shared" si="4"/>
-        <v>2.5836758661186141</v>
+        <v>3.1406138472519625</v>
       </c>
       <c r="O26" s="10">
         <f t="shared" si="5"/>
-        <v>5.6228282615562817</v>
+        <v>17.242492734904751</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="6"/>
-        <v>7.2580645161290314E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="7"/>
-        <v>2.6562565112799046</v>
+        <v>3.4618129907209134</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="8"/>
-        <v>0.47240576943118445</v>
+        <v>0.20077218787008738</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="10" customFormat="1">
@@ -10167,7 +10168,7 @@
       </c>
       <c r="M27" s="10">
         <f t="shared" si="3"/>
-        <v>0.11519234948924148</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="N27" s="10">
         <f t="shared" si="4"/>
@@ -10175,19 +10176,19 @@
       </c>
       <c r="O27" s="10">
         <f t="shared" si="5"/>
-        <v>5.5175318521638408</v>
+        <v>16.919599612528256</v>
       </c>
       <c r="Q27" s="10">
         <f t="shared" si="6"/>
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="S27" s="10">
         <f t="shared" si="7"/>
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="U27" s="10">
         <f t="shared" si="8"/>
-        <v>1.5493135927111549E-2</v>
+        <v>2.2358756831271011E-2</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="10" customFormat="1">
@@ -10224,7 +10225,7 @@
       </c>
       <c r="M28" s="10">
         <f t="shared" si="3"/>
-        <v>0.13475331449684849</v>
+        <v>0.44254104211277656</v>
       </c>
       <c r="N28" s="10">
         <f t="shared" si="4"/>
@@ -10232,19 +10233,19 @@
       </c>
       <c r="O28" s="10">
         <f t="shared" si="5"/>
-        <v>4.2013267347583456</v>
+        <v>12.883435582822088</v>
       </c>
       <c r="Q28" s="10">
         <f t="shared" si="6"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.44254104211277656</v>
       </c>
       <c r="S28" s="10">
         <f t="shared" si="7"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.44254104211277656</v>
       </c>
       <c r="U28" s="10">
         <f t="shared" si="8"/>
-        <v>2.3802005012531321E-2</v>
+        <v>3.4349614221134556E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="10" customFormat="1">
@@ -10281,7 +10282,7 @@
       </c>
       <c r="M29" s="10">
         <f t="shared" si="3"/>
-        <v>0.14127363616605085</v>
+        <v>0.46395431834404</v>
       </c>
       <c r="N29" s="10">
         <f t="shared" si="4"/>
@@ -10289,19 +10290,19 @@
       </c>
       <c r="O29" s="10">
         <f t="shared" si="5"/>
-        <v>4.1065599663051486</v>
+        <v>12.592831772683242</v>
       </c>
       <c r="Q29" s="10">
         <f t="shared" si="6"/>
-        <v>0.10483870967741934</v>
+        <v>0.46395431834404</v>
       </c>
       <c r="S29" s="10">
         <f t="shared" si="7"/>
-        <v>0.10483870967741934</v>
+        <v>0.46395431834404</v>
       </c>
       <c r="U29" s="10">
         <f>S29/O29</f>
-        <v>2.5529569892473118E-2</v>
+        <v>3.6842731382345943E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21">
